--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Present continous 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">¿Estamos hablando de una ducha?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, we aren’t taking a shower</t>
+    <t xml:space="preserve">no, we aren't taking a shower</t>
   </si>
   <si>
     <t xml:space="preserve">no, no nos vamos a duchar</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">son los que bailan?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, they aren’t dancing</t>
+    <t xml:space="preserve">no, they aren't dancing</t>
   </si>
   <si>
     <t xml:space="preserve">no, no están bailando</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">¿estoy hablando francés?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, you aren’t speaking french</t>
+    <t xml:space="preserve">no, you aren't speaking french</t>
   </si>
   <si>
     <t xml:space="preserve">no, no estás hablando francés</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">¿Estas prestando atención?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, you aren’t paying attention</t>
+    <t xml:space="preserve">no, you aren't paying attention</t>
   </si>
   <si>
     <t xml:space="preserve">no, no estás prestando atención</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">¿está viendo la televisión?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, he isn’t watching tv</t>
+    <t xml:space="preserve">no, he isn't watching tv</t>
   </si>
   <si>
     <t xml:space="preserve">no, el no esta viendo tv</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">el gato esta durmiendo?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, it isn’t sleeping</t>
+    <t xml:space="preserve">no, it isn't sleeping</t>
   </si>
   <si>
     <t xml:space="preserve">no, no está durmiendo</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">disfrutamos cocinar</t>
   </si>
   <si>
-    <t xml:space="preserve">we don’t like dacing</t>
+    <t xml:space="preserve">we don't like dacing</t>
   </si>
   <si>
     <t xml:space="preserve">no nos gusta bailar</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Considero que lo necesitamos</t>
   </si>
   <si>
-    <t xml:space="preserve">I believe that’s not true</t>
+    <t xml:space="preserve">I believe that's not true</t>
   </si>
   <si>
     <t xml:space="preserve">creo que eso no es verdad</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">¿Te gustan los deportes?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, I don’t. I actully hate sport</t>
+    <t xml:space="preserve">no, I don't. I actully hate sport</t>
   </si>
   <si>
     <t xml:space="preserve">no, no lo hago. en realidad odio el deporte</t>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -497,10 +497,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -645,10 +645,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -753,10 +753,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -892,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Present continous 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">are we talking a shower?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Estamos hablando de una ducha?</t>
+    <t xml:space="preserve">are we taking a shower?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿nos estamos duchando?</t>
   </si>
   <si>
     <t xml:space="preserve">no, we aren't taking a shower</t>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -648,7 +648,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -756,7 +756,7 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -892,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Present continous 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">disfrutamos cocinar</t>
   </si>
   <si>
-    <t xml:space="preserve">we don't like dacing</t>
+    <t xml:space="preserve">we don't like dancing</t>
   </si>
   <si>
     <t xml:space="preserve">no nos gusta bailar</t>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -648,7 +648,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -752,11 +752,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -896,7 +896,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Present continous 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">estamos conduciendo un coche</t>
   </si>
   <si>
-    <t xml:space="preserve">are the dancing?</t>
+    <t xml:space="preserve">are they dancing?</t>
   </si>
   <si>
     <t xml:space="preserve">son los que bailan?</t>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -648,7 +648,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -752,11 +752,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -896,7 +896,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Present continous 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">¿Te gustan los deportes?</t>
   </si>
   <si>
-    <t xml:space="preserve">no, I don't. I actully hate sport</t>
+    <t xml:space="preserve">no, I don't. I actually hate sport</t>
   </si>
   <si>
     <t xml:space="preserve">no, no lo hago. en realidad odio el deporte</t>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -648,7 +648,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -752,11 +752,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -896,7 +896,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 3.xlsx
@@ -290,7 +290,7 @@
     <t xml:space="preserve">Creo que los deportes son aburridos.</t>
   </si>
   <si>
-    <t xml:space="preserve">yes, I love them, I consider that sports are entertainig</t>
+    <t xml:space="preserve">yes, I love them, I consider that sports are entertaining</t>
   </si>
   <si>
     <t xml:space="preserve">si, los amo, considero que los deportes son entretenidos</t>
@@ -424,7 +424,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -648,7 +648,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
@@ -753,10 +753,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -896,7 +896,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
